--- a/SandboxVDKDmitRöhnerIndikatoren.xlsx
+++ b/SandboxVDKDmitRöhnerIndikatoren.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="930" firstSheet="13" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="930" firstSheet="13" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Kontur aussen F17Chr1" sheetId="1" r:id="rId1"/>
@@ -1736,9 +1736,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -1840,12 +1838,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="136729344"/>
-        <c:axId val="136731264"/>
+        <c:axId val="65665280"/>
+        <c:axId val="66757376"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="136729344"/>
+        <c:axId val="65665280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1866,18 +1864,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136731264"/>
+        <c:crossAx val="66757376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136731264"/>
+        <c:axId val="66757376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1899,18 +1896,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136729344"/>
+        <c:crossAx val="65665280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1947,7 +1942,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34048408325799612"/>
+          <c:x val="0.34048408325799639"/>
           <c:y val="1.290322580645162E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3397,11 +3392,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138310016"/>
-        <c:axId val="138311936"/>
+        <c:axId val="71165824"/>
+        <c:axId val="71180288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138310016"/>
+        <c:axId val="71165824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,14 +3419,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138311936"/>
+        <c:crossAx val="71180288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138311936"/>
+        <c:axId val="71180288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +3451,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138310016"/>
+        <c:crossAx val="71165824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3480,9 +3475,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -3584,12 +3577,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138333568"/>
-        <c:axId val="138540544"/>
+        <c:axId val="71259264"/>
+        <c:axId val="71261184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138333568"/>
+        <c:axId val="71259264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3610,17 +3603,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138540544"/>
+        <c:crossAx val="71261184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138540544"/>
+        <c:axId val="71261184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,18 +3634,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138333568"/>
+        <c:crossAx val="71259264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3671,9 +3661,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -3775,12 +3763,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138360704"/>
-        <c:axId val="138379264"/>
+        <c:axId val="71286144"/>
+        <c:axId val="71308800"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138360704"/>
+        <c:axId val="71286144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,17 +3789,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138379264"/>
+        <c:crossAx val="71308800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138379264"/>
+        <c:axId val="71308800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,18 +3820,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138360704"/>
+        <c:crossAx val="71286144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4072,12 +4057,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138552448"/>
-        <c:axId val="138554368"/>
+        <c:axId val="71330432"/>
+        <c:axId val="71353088"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138552448"/>
+        <c:axId val="71330432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4100,14 +4085,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138554368"/>
+        <c:crossAx val="71353088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138554368"/>
+        <c:axId val="71353088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4132,7 +4117,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138552448"/>
+        <c:crossAx val="71330432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4366,12 +4351,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138609024"/>
-        <c:axId val="138610944"/>
+        <c:axId val="71387008"/>
+        <c:axId val="71389184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138609024"/>
+        <c:axId val="71387008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4394,14 +4379,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138610944"/>
+        <c:crossAx val="71389184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138610944"/>
+        <c:axId val="71389184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,7 +4411,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138609024"/>
+        <c:crossAx val="71387008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5983,11 +5968,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="138706944"/>
-        <c:axId val="138708864"/>
+        <c:axId val="71742976"/>
+        <c:axId val="71744896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="138706944"/>
+        <c:axId val="71742976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6010,14 +5995,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138708864"/>
+        <c:crossAx val="71744896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138708864"/>
+        <c:axId val="71744896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6042,7 +6027,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138706944"/>
+        <c:crossAx val="71742976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6168,12 +6153,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138861568"/>
-        <c:axId val="138863744"/>
+        <c:axId val="72127232"/>
+        <c:axId val="72129152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138861568"/>
+        <c:axId val="72127232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6196,14 +6181,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138863744"/>
+        <c:crossAx val="72129152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138863744"/>
+        <c:axId val="72129152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,7 +6213,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138861568"/>
+        <c:crossAx val="72127232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6354,12 +6339,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138884608"/>
-        <c:axId val="138886528"/>
+        <c:axId val="72223744"/>
+        <c:axId val="72225920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138884608"/>
+        <c:axId val="72223744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6382,14 +6367,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138886528"/>
+        <c:crossAx val="72225920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138886528"/>
+        <c:axId val="72225920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6414,7 +6399,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138884608"/>
+        <c:crossAx val="72223744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6630,12 +6615,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138937088"/>
-        <c:axId val="138939008"/>
+        <c:axId val="72251648"/>
+        <c:axId val="72278400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138937088"/>
+        <c:axId val="72251648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6658,14 +6643,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138939008"/>
+        <c:crossAx val="72278400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138939008"/>
+        <c:axId val="72278400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6690,7 +6675,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138937088"/>
+        <c:crossAx val="72251648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6900,12 +6885,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138973184"/>
-        <c:axId val="138975104"/>
+        <c:axId val="72369664"/>
+        <c:axId val="72371584"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138973184"/>
+        <c:axId val="72369664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6928,14 +6913,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138975104"/>
+        <c:crossAx val="72371584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138975104"/>
+        <c:axId val="72371584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6960,7 +6945,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138973184"/>
+        <c:crossAx val="72369664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6984,9 +6969,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -7088,12 +7071,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="136739840"/>
-        <c:axId val="136770688"/>
+        <c:axId val="70132864"/>
+        <c:axId val="70134784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="136739840"/>
+        <c:axId val="70132864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7114,18 +7097,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136770688"/>
+        <c:crossAx val="70134784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136770688"/>
+        <c:axId val="70134784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7147,18 +7129,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136739840"/>
+        <c:crossAx val="70132864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -8655,11 +8635,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140144000"/>
-        <c:axId val="140150272"/>
+        <c:axId val="72299648"/>
+        <c:axId val="72301568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140144000"/>
+        <c:axId val="72299648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8682,14 +8662,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140150272"/>
+        <c:crossAx val="72301568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140150272"/>
+        <c:axId val="72301568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8714,7 +8694,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140144000"/>
+        <c:crossAx val="72299648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8872,12 +8852,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="140323456"/>
-        <c:axId val="140342016"/>
+        <c:axId val="72577408"/>
+        <c:axId val="72579328"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="140323456"/>
+        <c:axId val="72577408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8900,14 +8880,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140342016"/>
+        <c:crossAx val="72579328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140342016"/>
+        <c:axId val="72579328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8932,7 +8912,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140323456"/>
+        <c:crossAx val="72577408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8986,7 +8966,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15934033245844395"/>
+          <c:x val="0.15934033245844406"/>
           <c:y val="5.5555555555555455E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -9092,12 +9072,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="140371072"/>
-        <c:axId val="140372992"/>
+        <c:axId val="72600192"/>
+        <c:axId val="75772672"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="140371072"/>
+        <c:axId val="72600192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9120,14 +9100,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140372992"/>
+        <c:crossAx val="75772672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140372992"/>
+        <c:axId val="75772672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9152,7 +9132,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140371072"/>
+        <c:crossAx val="72600192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9206,7 +9186,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.6599518810148819E-2"/>
           <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.6197893700787428"/>
+          <c:w val="0.61978937007874302"/>
           <c:h val="0.89719889180519163"/>
         </c:manualLayout>
       </c:layout>
@@ -10833,11 +10813,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140486912"/>
-        <c:axId val="140493184"/>
+        <c:axId val="75837440"/>
+        <c:axId val="75839360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140486912"/>
+        <c:axId val="75837440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10860,14 +10840,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140493184"/>
+        <c:crossAx val="75839360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140493184"/>
+        <c:axId val="75839360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10892,7 +10872,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140486912"/>
+        <c:crossAx val="75837440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11228,12 +11208,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="140527872"/>
-        <c:axId val="140542336"/>
+        <c:axId val="75874304"/>
+        <c:axId val="75876224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="140527872"/>
+        <c:axId val="75874304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11256,14 +11236,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140542336"/>
+        <c:crossAx val="75876224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140542336"/>
+        <c:axId val="75876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11288,7 +11268,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140527872"/>
+        <c:crossAx val="75874304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11614,12 +11594,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="140560640"/>
-        <c:axId val="140579200"/>
+        <c:axId val="75911168"/>
+        <c:axId val="75913088"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="140560640"/>
+        <c:axId val="75911168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11642,14 +11622,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140579200"/>
+        <c:crossAx val="75913088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140579200"/>
+        <c:axId val="75913088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11674,7 +11654,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140560640"/>
+        <c:crossAx val="75911168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11816,12 +11796,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="140665984"/>
-        <c:axId val="140667904"/>
+        <c:axId val="76008064"/>
+        <c:axId val="76014336"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="140665984"/>
+        <c:axId val="76008064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11844,14 +11824,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140667904"/>
+        <c:crossAx val="76014336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140667904"/>
+        <c:axId val="76014336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11876,7 +11856,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140665984"/>
+        <c:crossAx val="76008064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12024,12 +12004,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="140709248"/>
-        <c:axId val="140731904"/>
+        <c:axId val="76031104"/>
+        <c:axId val="76033024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="140709248"/>
+        <c:axId val="76031104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12052,14 +12032,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140731904"/>
+        <c:crossAx val="76033024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140731904"/>
+        <c:axId val="76033024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12084,7 +12064,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140709248"/>
+        <c:crossAx val="76031104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12374,12 +12354,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="140770688"/>
-        <c:axId val="140776960"/>
+        <c:axId val="76076160"/>
+        <c:axId val="76078080"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="140770688"/>
+        <c:axId val="76076160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12402,14 +12382,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140776960"/>
+        <c:crossAx val="76078080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140776960"/>
+        <c:axId val="76078080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12434,7 +12414,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140770688"/>
+        <c:crossAx val="76076160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12724,12 +12704,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="140799360"/>
-        <c:axId val="140817920"/>
+        <c:axId val="76117120"/>
+        <c:axId val="76119040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="140799360"/>
+        <c:axId val="76117120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12752,14 +12732,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140817920"/>
+        <c:crossAx val="76119040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140817920"/>
+        <c:axId val="76119040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12784,7 +12764,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140799360"/>
+        <c:crossAx val="76117120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12824,7 +12804,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -13019,12 +12998,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="136804608"/>
-        <c:axId val="136814976"/>
+        <c:axId val="70173056"/>
+        <c:axId val="70174976"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="136804608"/>
+        <c:axId val="70173056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13045,17 +13024,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136814976"/>
+        <c:crossAx val="70174976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136814976"/>
+        <c:axId val="70174976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13077,18 +13055,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136804608"/>
+        <c:crossAx val="70173056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -13130,8 +13106,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.4558952075056473E-2"/>
           <c:y val="8.9218171358717152E-2"/>
-          <c:w val="0.772716365724751"/>
-          <c:h val="0.84410365656348341"/>
+          <c:w val="0.77271636572475078"/>
+          <c:h val="0.84410365656348396"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -14757,11 +14733,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="140944128"/>
-        <c:axId val="140946048"/>
+        <c:axId val="76310784"/>
+        <c:axId val="76337536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140944128"/>
+        <c:axId val="76310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14784,14 +14760,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140946048"/>
+        <c:crossAx val="76337536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140946048"/>
+        <c:axId val="76337536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14816,7 +14792,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140944128"/>
+        <c:crossAx val="76310784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15180,8 +15156,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="142320000"/>
-        <c:axId val="142321920"/>
+        <c:axId val="76965760"/>
+        <c:axId val="76996608"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -15490,11 +15466,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="142084352"/>
-        <c:axId val="142082432"/>
+        <c:axId val="76615680"/>
+        <c:axId val="76998528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142320000"/>
+        <c:axId val="76965760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15517,12 +15493,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142321920"/>
+        <c:crossAx val="76996608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142321920"/>
+        <c:axId val="76996608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15547,12 +15523,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142320000"/>
+        <c:crossAx val="76965760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142082432"/>
+        <c:axId val="76998528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15576,19 +15552,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142084352"/>
+        <c:crossAx val="76615680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142084352"/>
+        <c:axId val="76615680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="142082432"/>
+        <c:crossAx val="76998528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15944,8 +15920,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="142142464"/>
-        <c:axId val="142148736"/>
+        <c:axId val="76665600"/>
+        <c:axId val="76667520"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -16258,11 +16234,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="142165120"/>
-        <c:axId val="142150656"/>
+        <c:axId val="76675712"/>
+        <c:axId val="76673792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142142464"/>
+        <c:axId val="76665600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16285,12 +16261,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142148736"/>
+        <c:crossAx val="76667520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142148736"/>
+        <c:axId val="76667520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16315,12 +16291,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142142464"/>
+        <c:crossAx val="76665600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142150656"/>
+        <c:axId val="76673792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16344,19 +16320,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142165120"/>
+        <c:crossAx val="76675712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142165120"/>
+        <c:axId val="76675712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="142150656"/>
+        <c:crossAx val="76673792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16772,25 +16748,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="140087296"/>
-        <c:axId val="140088832"/>
+        <c:axId val="82478592"/>
+        <c:axId val="82480128"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="140087296"/>
+        <c:axId val="82478592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140088832"/>
+        <c:crossAx val="82480128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140088832"/>
+        <c:axId val="82480128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16798,7 +16774,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140087296"/>
+        <c:crossAx val="82478592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18446,24 +18422,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143941632"/>
-        <c:axId val="143943168"/>
+        <c:axId val="82519552"/>
+        <c:axId val="82521088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143941632"/>
+        <c:axId val="82519552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143943168"/>
+        <c:crossAx val="82521088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143943168"/>
+        <c:axId val="82521088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18471,7 +18447,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143941632"/>
+        <c:crossAx val="82519552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18823,25 +18799,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144028032"/>
-        <c:axId val="144029568"/>
+        <c:axId val="82671488"/>
+        <c:axId val="82673024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144028032"/>
+        <c:axId val="82671488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144029568"/>
+        <c:crossAx val="82673024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144029568"/>
+        <c:axId val="82673024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18849,7 +18825,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144028032"/>
+        <c:crossAx val="82671488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19201,25 +19177,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144060416"/>
-        <c:axId val="144061952"/>
+        <c:axId val="82720256"/>
+        <c:axId val="82721792"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144060416"/>
+        <c:axId val="82720256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144061952"/>
+        <c:crossAx val="82721792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144061952"/>
+        <c:axId val="82721792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19227,7 +19203,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144060416"/>
+        <c:crossAx val="82720256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20645,24 +20621,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144175104"/>
-        <c:axId val="144176640"/>
+        <c:axId val="82806272"/>
+        <c:axId val="82807808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144175104"/>
+        <c:axId val="82806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144176640"/>
+        <c:crossAx val="82807808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144176640"/>
+        <c:axId val="82807808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20670,7 +20646,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144175104"/>
+        <c:crossAx val="82806272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20684,7 +20660,7 @@
           <c:x val="0.74749912510936123"/>
           <c:y val="0.16011774569845438"/>
           <c:w val="0.25250087489063888"/>
-          <c:h val="0.83717191601050212"/>
+          <c:h val="0.83717191601050256"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -21080,25 +21056,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144458112"/>
-        <c:axId val="144459648"/>
+        <c:axId val="82962304"/>
+        <c:axId val="82963840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144458112"/>
+        <c:axId val="82962304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144459648"/>
+        <c:crossAx val="82963840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144459648"/>
+        <c:axId val="82963840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21106,7 +21082,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144458112"/>
+        <c:crossAx val="82962304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21458,25 +21434,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144502784"/>
-        <c:axId val="144504320"/>
+        <c:axId val="83072512"/>
+        <c:axId val="83074048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144502784"/>
+        <c:axId val="83072512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144504320"/>
+        <c:crossAx val="83074048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144504320"/>
+        <c:axId val="83074048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21484,7 +21460,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144502784"/>
+        <c:crossAx val="83072512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21524,7 +21500,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -21719,12 +21694,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="136828416"/>
-        <c:axId val="136830336"/>
+        <c:axId val="68373888"/>
+        <c:axId val="68384256"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="136828416"/>
+        <c:axId val="68373888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21745,17 +21720,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136830336"/>
+        <c:crossAx val="68384256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136830336"/>
+        <c:axId val="68384256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21777,18 +21751,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136828416"/>
+        <c:crossAx val="68373888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -21998,25 +21970,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144374016"/>
-        <c:axId val="144388096"/>
+        <c:axId val="83165184"/>
+        <c:axId val="83166720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144374016"/>
+        <c:axId val="83165184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144388096"/>
+        <c:crossAx val="83166720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144388096"/>
+        <c:axId val="83166720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22024,7 +21996,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144374016"/>
+        <c:crossAx val="83165184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22240,25 +22212,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144413056"/>
-        <c:axId val="144414592"/>
+        <c:axId val="83191680"/>
+        <c:axId val="83193216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144413056"/>
+        <c:axId val="83191680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144414592"/>
+        <c:crossAx val="83193216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144414592"/>
+        <c:axId val="83193216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22266,7 +22238,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144413056"/>
+        <c:crossAx val="83191680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22458,25 +22430,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144644352"/>
-        <c:axId val="144646144"/>
+        <c:axId val="83234816"/>
+        <c:axId val="83236352"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144644352"/>
+        <c:axId val="83234816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144646144"/>
+        <c:crossAx val="83236352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144646144"/>
+        <c:axId val="83236352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22484,7 +22456,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144644352"/>
+        <c:crossAx val="83234816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22700,25 +22672,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144675200"/>
-        <c:axId val="144676736"/>
+        <c:axId val="83257216"/>
+        <c:axId val="83258752"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144675200"/>
+        <c:axId val="83257216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144676736"/>
+        <c:crossAx val="83258752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144676736"/>
+        <c:axId val="83258752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22726,7 +22698,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144675200"/>
+        <c:crossAx val="83257216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22918,25 +22890,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144513280"/>
-        <c:axId val="144527360"/>
+        <c:axId val="83644416"/>
+        <c:axId val="83645952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144513280"/>
+        <c:axId val="83644416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144527360"/>
+        <c:crossAx val="83645952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144527360"/>
+        <c:axId val="83645952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22944,7 +22916,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144513280"/>
+        <c:crossAx val="83644416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23160,25 +23132,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144548608"/>
-        <c:axId val="144550144"/>
+        <c:axId val="83675392"/>
+        <c:axId val="72163328"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144548608"/>
+        <c:axId val="83675392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144550144"/>
+        <c:crossAx val="72163328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144550144"/>
+        <c:axId val="72163328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23186,7 +23158,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144548608"/>
+        <c:crossAx val="83675392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23402,25 +23374,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="142616832"/>
-        <c:axId val="142635008"/>
+        <c:axId val="72192000"/>
+        <c:axId val="72193536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="142616832"/>
+        <c:axId val="72192000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142635008"/>
+        <c:crossAx val="72193536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142635008"/>
+        <c:axId val="72193536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23428,7 +23400,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142616832"/>
+        <c:crossAx val="72192000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23620,25 +23592,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="142668160"/>
-        <c:axId val="142669696"/>
+        <c:axId val="72218496"/>
+        <c:axId val="72220032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="142668160"/>
+        <c:axId val="72218496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142669696"/>
+        <c:crossAx val="72220032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142669696"/>
+        <c:axId val="72220032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23646,7 +23618,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142668160"/>
+        <c:crossAx val="72218496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23838,25 +23810,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144595200"/>
-        <c:axId val="144605184"/>
+        <c:axId val="83578880"/>
+        <c:axId val="83580416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144595200"/>
+        <c:axId val="83578880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144605184"/>
+        <c:crossAx val="83580416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144605184"/>
+        <c:axId val="83580416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23864,7 +23836,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144595200"/>
+        <c:crossAx val="83578880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24056,25 +24028,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144634240"/>
-        <c:axId val="144635776"/>
+        <c:axId val="83617664"/>
+        <c:axId val="83619200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144634240"/>
+        <c:axId val="83617664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144635776"/>
+        <c:crossAx val="83619200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144635776"/>
+        <c:axId val="83619200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24082,7 +24054,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144634240"/>
+        <c:crossAx val="83617664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24121,7 +24093,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -25808,11 +25779,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="137706112"/>
-        <c:axId val="137724672"/>
+        <c:axId val="70214400"/>
+        <c:axId val="70216320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137706112"/>
+        <c:axId val="70214400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25833,17 +25804,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137724672"/>
+        <c:crossAx val="70216320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137724672"/>
+        <c:axId val="70216320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25865,18 +25835,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137706112"/>
+        <c:crossAx val="70214400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -26012,25 +25980,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145053952"/>
-        <c:axId val="145059840"/>
+        <c:axId val="84046208"/>
+        <c:axId val="84047744"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145053952"/>
+        <c:axId val="84046208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145059840"/>
+        <c:crossAx val="84047744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145059840"/>
+        <c:axId val="84047744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26038,7 +26006,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145053952"/>
+        <c:crossAx val="84046208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26180,25 +26148,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145100800"/>
-        <c:axId val="145102336"/>
+        <c:axId val="84068224"/>
+        <c:axId val="84069760"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145100800"/>
+        <c:axId val="84068224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145102336"/>
+        <c:crossAx val="84069760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145102336"/>
+        <c:axId val="84069760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26206,7 +26174,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145100800"/>
+        <c:crossAx val="84068224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27862,24 +27830,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="145208448"/>
-        <c:axId val="145210368"/>
+        <c:axId val="84196352"/>
+        <c:axId val="84210816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145208448"/>
+        <c:axId val="84196352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145210368"/>
+        <c:crossAx val="84210816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145210368"/>
+        <c:axId val="84210816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27887,7 +27855,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145208448"/>
+        <c:crossAx val="84196352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28055,25 +28023,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145273600"/>
-        <c:axId val="145275136"/>
+        <c:axId val="84249216"/>
+        <c:axId val="84287872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145273600"/>
+        <c:axId val="84249216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145275136"/>
+        <c:crossAx val="84287872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145275136"/>
+        <c:axId val="84287872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28081,7 +28049,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145273600"/>
+        <c:crossAx val="84249216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28236,25 +28204,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145320960"/>
-        <c:axId val="145326848"/>
+        <c:axId val="84309120"/>
+        <c:axId val="84310656"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145320960"/>
+        <c:axId val="84309120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145326848"/>
+        <c:crossAx val="84310656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145326848"/>
+        <c:axId val="84310656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28262,7 +28230,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145320960"/>
+        <c:crossAx val="84309120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28771,25 +28739,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145518592"/>
-        <c:axId val="145520128"/>
+        <c:axId val="84428672"/>
+        <c:axId val="84430208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145518592"/>
+        <c:axId val="84428672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145520128"/>
+        <c:crossAx val="84430208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145520128"/>
+        <c:axId val="84430208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28797,7 +28765,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145518592"/>
+        <c:crossAx val="84428672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29122,25 +29090,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145538048"/>
-        <c:axId val="145543936"/>
+        <c:axId val="84464768"/>
+        <c:axId val="84466304"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145538048"/>
+        <c:axId val="84464768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145543936"/>
+        <c:crossAx val="84466304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145543936"/>
+        <c:axId val="84466304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29148,7 +29116,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145538048"/>
+        <c:crossAx val="84464768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29481,25 +29449,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145382016"/>
-        <c:axId val="145392000"/>
+        <c:axId val="84370176"/>
+        <c:axId val="84371712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145382016"/>
+        <c:axId val="84370176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145392000"/>
+        <c:crossAx val="84371712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145392000"/>
+        <c:axId val="84371712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29507,7 +29475,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145382016"/>
+        <c:crossAx val="84370176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29779,25 +29747,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145418112"/>
-        <c:axId val="145419648"/>
+        <c:axId val="84484096"/>
+        <c:axId val="84485632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145418112"/>
+        <c:axId val="84484096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145419648"/>
+        <c:crossAx val="84485632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145419648"/>
+        <c:axId val="84485632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29805,7 +29773,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145418112"/>
+        <c:crossAx val="84484096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30034,25 +30002,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145449728"/>
-        <c:axId val="145451264"/>
+        <c:axId val="84527744"/>
+        <c:axId val="84541824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145449728"/>
+        <c:axId val="84527744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145451264"/>
+        <c:crossAx val="84541824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145451264"/>
+        <c:axId val="84541824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30060,7 +30028,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145449728"/>
+        <c:crossAx val="84527744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30174,12 +30142,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138131712"/>
-        <c:axId val="138146176"/>
+        <c:axId val="70721920"/>
+        <c:axId val="70723840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138131712"/>
+        <c:axId val="70721920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30202,14 +30170,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138146176"/>
+        <c:crossAx val="70723840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138146176"/>
+        <c:axId val="70723840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30234,7 +30202,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138131712"/>
+        <c:crossAx val="70721920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30748,25 +30716,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145621376"/>
-        <c:axId val="145622912"/>
+        <c:axId val="84941056"/>
+        <c:axId val="84951040"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145621376"/>
+        <c:axId val="84941056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145622912"/>
+        <c:crossAx val="84951040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145622912"/>
+        <c:axId val="84951040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30774,7 +30742,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145621376"/>
+        <c:crossAx val="84941056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31107,25 +31075,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145661312"/>
-        <c:axId val="145675392"/>
+        <c:axId val="84981248"/>
+        <c:axId val="84982784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145661312"/>
+        <c:axId val="84981248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145675392"/>
+        <c:crossAx val="84982784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145675392"/>
+        <c:axId val="84982784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31133,7 +31101,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145661312"/>
+        <c:crossAx val="84981248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31638,7 +31606,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="plus"/>
             <c:errValType val="fixedVal"/>
-            <c:val val="0.75000000000000089"/>
+            <c:val val="0.75000000000000111"/>
           </c:errBars>
           <c:cat>
             <c:strRef>
@@ -31719,38 +31687,37 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="145753600"/>
-        <c:axId val="145755136"/>
+        <c:axId val="84925824"/>
+        <c:axId val="85009536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145753600"/>
+        <c:axId val="84925824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145755136"/>
+        <c:crossAx val="85009536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145755136"/>
+        <c:axId val="85009536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145753600"/>
+        <c:crossAx val="84925824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -31782,7 +31749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -32341,24 +32307,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="145795328"/>
-        <c:axId val="145813504"/>
+        <c:axId val="85057920"/>
+        <c:axId val="85059456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145795328"/>
+        <c:axId val="85057920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145813504"/>
+        <c:crossAx val="85059456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145813504"/>
+        <c:axId val="85059456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32366,14 +32332,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145795328"/>
+        <c:crossAx val="85057920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -32875,25 +32840,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145841152"/>
-        <c:axId val="145851136"/>
+        <c:axId val="85120128"/>
+        <c:axId val="85121664"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145841152"/>
+        <c:axId val="85120128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145851136"/>
+        <c:crossAx val="85121664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145851136"/>
+        <c:axId val="85121664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32901,7 +32866,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145841152"/>
+        <c:crossAx val="85120128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32913,7 +32878,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -33129,24 +33094,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="146089472"/>
-        <c:axId val="146091008"/>
+        <c:axId val="85134720"/>
+        <c:axId val="85152896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146089472"/>
+        <c:axId val="85134720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146091008"/>
+        <c:crossAx val="85152896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146091008"/>
+        <c:axId val="85152896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33154,7 +33119,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146089472"/>
+        <c:crossAx val="85134720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33166,7 +33131,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -33751,7 +33716,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
-            <c:val val="0.75000000000000056"/>
+            <c:val val="0.75000000000000089"/>
           </c:errBars>
           <c:xVal>
             <c:strRef>
@@ -33972,22 +33937,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146011264"/>
-        <c:axId val="146012800"/>
+        <c:axId val="82349056"/>
+        <c:axId val="82367232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146011264"/>
+        <c:axId val="82349056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146012800"/>
+        <c:crossAx val="82367232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146012800"/>
+        <c:axId val="82367232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33995,20 +33960,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146011264"/>
+        <c:crossAx val="82349056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -34593,22 +34557,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="143832192"/>
-        <c:axId val="143833728"/>
+        <c:axId val="83770368"/>
+        <c:axId val="83788544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143832192"/>
+        <c:axId val="83770368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143833728"/>
+        <c:crossAx val="83788544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143833728"/>
+        <c:axId val="83788544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34616,20 +34580,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143832192"/>
+        <c:crossAx val="83770368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -35104,24 +35067,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="144778368"/>
-        <c:axId val="144779904"/>
+        <c:axId val="83807232"/>
+        <c:axId val="85459712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144778368"/>
+        <c:axId val="83807232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144779904"/>
+        <c:crossAx val="85459712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144779904"/>
+        <c:axId val="85459712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35129,7 +35092,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144778368"/>
+        <c:crossAx val="83807232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35141,7 +35104,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -35449,24 +35412,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65867776"/>
-        <c:axId val="65869312"/>
+        <c:axId val="85485440"/>
+        <c:axId val="85486976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65867776"/>
+        <c:axId val="85485440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65869312"/>
+        <c:crossAx val="85486976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65869312"/>
+        <c:axId val="85486976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35474,7 +35437,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65867776"/>
+        <c:crossAx val="85485440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35486,7 +35449,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -35587,12 +35550,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138035968"/>
-        <c:axId val="138037888"/>
+        <c:axId val="70744704"/>
+        <c:axId val="70759168"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138035968"/>
+        <c:axId val="70744704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35615,14 +35578,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138037888"/>
+        <c:crossAx val="70759168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138037888"/>
+        <c:axId val="70759168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35647,7 +35610,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138035968"/>
+        <c:crossAx val="70744704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35968,24 +35931,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65907328"/>
-        <c:axId val="65925504"/>
+        <c:axId val="85594880"/>
+        <c:axId val="85596416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65907328"/>
+        <c:axId val="85594880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65925504"/>
+        <c:crossAx val="85596416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65925504"/>
+        <c:axId val="85596416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35993,7 +35956,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65907328"/>
+        <c:crossAx val="85594880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -36015,9 +35978,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -36026,8 +35987,8 @@
           <c:yMode val="edge"/>
           <c:x val="9.191272965879263E-2"/>
           <c:y val="1.7498268280590017E-2"/>
-          <c:w val="0.70396571522309725"/>
-          <c:h val="0.8475122845962314"/>
+          <c:w val="0.70396571522309759"/>
+          <c:h val="0.84751228459623118"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -36213,23 +36174,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="66052480"/>
-        <c:axId val="66054016"/>
+        <c:axId val="85649664"/>
+        <c:axId val="85532672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66052480"/>
+        <c:axId val="85649664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66054016"/>
+        <c:crossAx val="85532672"/>
         <c:crossesAt val="2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66054016"/>
+        <c:axId val="85532672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36237,20 +36198,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66052480"/>
+        <c:crossAx val="85649664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -36294,7 +36254,7 @@
           <c:yMode val="edge"/>
           <c:x val="3.5953966967899396E-2"/>
           <c:y val="1.7360291340730943E-2"/>
-          <c:w val="0.78381058368838707"/>
+          <c:w val="0.7838105836883873"/>
           <c:h val="0.97362548185934794"/>
         </c:manualLayout>
       </c:layout>
@@ -37377,11 +37337,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146678144"/>
-        <c:axId val="146680064"/>
+        <c:axId val="85670144"/>
+        <c:axId val="85672320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146678144"/>
+        <c:axId val="85670144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.5"/>
@@ -37408,13 +37368,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146680064"/>
+        <c:crossAx val="85672320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146680064"/>
+        <c:axId val="85672320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -37439,7 +37399,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146678144"/>
+        <c:crossAx val="85670144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -37453,7 +37413,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -37488,8 +37448,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.5878099930198923E-2"/>
-          <c:y val="3.2958575595210274E-2"/>
-          <c:w val="0.75885201679056358"/>
+          <c:y val="3.2958575595210281E-2"/>
+          <c:w val="0.75885201679056391"/>
           <c:h val="0.92755802596879489"/>
         </c:manualLayout>
       </c:layout>
@@ -38572,11 +38532,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="148849792"/>
-        <c:axId val="148851712"/>
+        <c:axId val="91245568"/>
+        <c:axId val="91255936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148849792"/>
+        <c:axId val="91245568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.5"/>
@@ -38603,13 +38563,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148851712"/>
+        <c:crossAx val="91255936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148851712"/>
+        <c:axId val="91255936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38621,11 +38581,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Mittelwerte [mm]</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Messwert=(Mittelwert±Fehler) [mm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -38634,7 +38594,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148849792"/>
+        <c:crossAx val="91245568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
@@ -38648,7 +38608,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -38669,7 +38629,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Vergleich Standardab. Alt/Neu</a:t>
+              <a:t>F13,F17 und Fxx Messwerte Kontur aussen mit Fehler</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -38682,9 +38642,686 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7446631671041067E-2"/>
-          <c:y val="4.2141294838145292E-2"/>
-          <c:w val="0.72091447944007037"/>
+          <c:x val="7.3530223497980274E-2"/>
+          <c:y val="9.607469809629493E-2"/>
+          <c:w val="0.77724890638670174"/>
+          <c:h val="0.89713679590770723"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$D$50:$M$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$D$50:$M$50</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.5999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.02</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$D$43:$M$43</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$D$44:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.127</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.22900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$D$51:$M$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$D$51:$M$51</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.04</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.9E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>6.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.01</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.4E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.05</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$D$43:$M$43</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$D$45:$M$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.26800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$D$52:$M$52</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.9999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Prototyp IndikatorChart'!$D$52:$M$52</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.08</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.7999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.6E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000001E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.9999999999999993E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.0000000000000002E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.2999999999999999E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.7E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.06</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Prototyp IndikatorChart'!$D$43:$M$43</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Prototyp IndikatorChart'!$D$46:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="91443200"/>
+        <c:axId val="91445120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91443200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Messpunkte Kontur aussen (Streckbiegen)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91445120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91445120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="1"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1" i="1"/>
+                  <a:t>Messwert=Mittelwert±Fehler [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91443200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.05"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vergleich Standardab. Alt/Neu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7446631671040997E-2"/>
+          <c:y val="4.2141294838145327E-2"/>
+          <c:w val="0.72091447944007081"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -39059,24 +39696,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="149108608"/>
-        <c:axId val="149110144"/>
+        <c:axId val="91321088"/>
+        <c:axId val="91322624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149108608"/>
+        <c:axId val="91321088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149110144"/>
+        <c:crossAx val="91322624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149110144"/>
+        <c:axId val="91322624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -39084,625 +39721,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149108608"/>
+        <c:crossAx val="91321088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>VerglAltNeu!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>VerglAltNeu!$C$9:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.27030002823373267</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11573449651772093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5587751214146704E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.592389616661136E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8022547312739773E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8022547312739773E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4942038071455556E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1128331324987196</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.83699056096306E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21041062610748731</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>VerglAltNeu!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>VerglAltNeu!$C$10:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.15118479455705683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7766596212438205E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3324560249003474E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3330200448672081E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6693837501494849E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.922169826551564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5423836644690757E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5874189537269287E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.6501047964198518E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10868956275849763</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>VerglAltNeu!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>VerglAltNeu!$C$11:$L$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.45378959882306691</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12130431501849086</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8092429442401306E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0770380921826529E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10287447640079071</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16392873933190411</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.218855275419505</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.23452303219850071</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21083792727815212</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.43154678955930992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>VerglAltNeu!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>VerglAltNeu!$C$12:$L$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.16154761396859962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0094647261064988E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5250625145308381E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6944180805158294E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6969768650335613E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8451251013101756E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7013926184468106E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1100006402870252E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0147151884282058E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10668571650067847</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>VerglAltNeu!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>VerglAltNeu!$C$13:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.4156108190858081</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13784048752090203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8247719459969976E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3455741879327438E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0317785885405518E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7527082062880359E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8382310609877344E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13217635278405179</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12059357552339342</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29073043013509225</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>VerglAltNeu!$B$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nFxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>VerglAltNeu!$C$14:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.12145932825869225</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6062171674232714E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7772572611727615E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4608937423083801E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8644806282753824E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5021043774769821E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.218281792655454E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.98944583661936E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1121629988015636E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1044018047837549</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="142532992"/>
-        <c:axId val="142534912"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="142532992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142534912"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="142534912"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142532992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -39905,6 +39936,610 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
+              <c:f>VerglAltNeu!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45378959882306691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12130431501849086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8092429442401306E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0770380921826529E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10287447640079071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16392873933190411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.218855275419505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23452303219850071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21083792727815212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43154678955930992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0147151884282058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10668571650067847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4156108190858081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13784048752090203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8247719459969976E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3455741879327438E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0317785885405518E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7527082062880359E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8382310609877344E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13217635278405179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12059357552339342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29073043013509225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7772572611727615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1121629988015636E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1044018047837549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="91568000"/>
+        <c:axId val="91569536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="91568000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91569536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91569536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91568000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27030002823373267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11573449651772093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5587751214146704E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.592389616661136E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4942038071455556E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1128331324987196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.83699056096306E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21041062610748731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455705683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212438205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198518E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275849763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
               <c:f>VerglAltNeu!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -40085,24 +40720,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95077120"/>
-        <c:axId val="141824384"/>
+        <c:axId val="91497600"/>
+        <c:axId val="91499136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95077120"/>
+        <c:axId val="91497600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141824384"/>
+        <c:crossAx val="91499136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="141824384"/>
+        <c:axId val="91499136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40110,20 +40745,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95077120"/>
+        <c:crossAx val="91497600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -40326,12 +40960,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138149888"/>
-        <c:axId val="138151808"/>
+        <c:axId val="70665728"/>
+        <c:axId val="70667648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138149888"/>
+        <c:axId val="70665728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40354,14 +40988,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138151808"/>
+        <c:crossAx val="70667648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138151808"/>
+        <c:axId val="70667648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40386,7 +41020,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138149888"/>
+        <c:crossAx val="70665728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -40596,12 +41230,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="138165248"/>
-        <c:axId val="138187904"/>
+        <c:axId val="70705920"/>
+        <c:axId val="70707840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="138165248"/>
+        <c:axId val="70705920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40624,14 +41258,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138187904"/>
+        <c:crossAx val="70707840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138187904"/>
+        <c:axId val="70707840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -40656,7 +41290,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138165248"/>
+        <c:crossAx val="70705920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -42146,16 +42780,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>629478</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>720587</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>157371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>198781</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>82828</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>82826</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42169,6 +42803,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>372718</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -55745,8 +56409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -57938,7 +58602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B7:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
